--- a/data/income_groups.xlsx
+++ b/data/income_groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steff\Documents\Studium - UW\PUBPOL 594 A - Economic Approaches To Environmental Management\Project\tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D488FEE0-A9F4-46E4-BEC4-A342528D845A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EB0320-0FEC-4AA8-9556-E1A91910CF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DD775888-F91C-4112-8121-71A92DE74290}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{DD775888-F91C-4112-8121-71A92DE74290}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>discount rate</t>
   </si>
@@ -47,9 +47,6 @@
     <t>household income group</t>
   </si>
   <si>
-    <t>&lt;$25k</t>
-  </si>
-  <si>
     <t>$25-50k</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>$100-200k</t>
   </si>
   <si>
-    <t>&gt;$200k</t>
-  </si>
-  <si>
     <t>used vehicle purchases market share</t>
   </si>
   <si>
@@ -90,6 +84,36 @@
   </si>
   <si>
     <t>maximum benefit from federal $7,500 EV tax credit</t>
+  </si>
+  <si>
+    <t>household income group ID</t>
+  </si>
+  <si>
+    <t>household income group lower bound</t>
+  </si>
+  <si>
+    <t>household income group upper bound</t>
+  </si>
+  <si>
+    <t>average vehicle age [years]</t>
+  </si>
+  <si>
+    <t>average annual mileage per person (WA) [mi]</t>
+  </si>
+  <si>
+    <t>average annual mileage per person (U.S.) [mi]</t>
+  </si>
+  <si>
+    <t>average annual mileage per vehicle (WA) [mi]</t>
+  </si>
+  <si>
+    <t>average annual mileage per vehicle (U.S.) [mi]</t>
+  </si>
+  <si>
+    <t>less than $25k</t>
+  </si>
+  <si>
+    <t>more than $200k</t>
   </si>
 </sst>
 </file>
@@ -98,7 +122,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -162,14 +186,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,288 +511,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70D2DBF-580B-46D9-BE63-61DC94AB5FBA}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.90625" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" customWidth="1"/>
-    <col min="10" max="12" width="13.08984375" customWidth="1"/>
+    <col min="2" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" customWidth="1"/>
+    <col min="7" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" customWidth="1"/>
+    <col min="13" max="15" width="13.08984375" customWidth="1"/>
+    <col min="16" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>13839</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1360</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H2" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I7" si="0">F2+G2*(E2-H2)</f>
+        <v>1388.68</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I2/E2</f>
+        <v>0.10034540067923983</v>
+      </c>
+      <c r="K2" s="3">
+        <f>MIN(7500,I2)</f>
+        <v>1388.68</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.191</v>
+      </c>
+      <c r="O2" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="P2" s="6">
+        <v>5043</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>7490</v>
+      </c>
+      <c r="R2" s="6">
+        <v>12908.873572</v>
+      </c>
+      <c r="S2" s="6">
+        <v>13363.344440000001</v>
+      </c>
+      <c r="T2" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>13839</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C3" s="3">
+        <v>25000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>36875</v>
+      </c>
+      <c r="F3" s="3">
         <v>1360</v>
       </c>
-      <c r="D2" s="4">
+      <c r="G3" s="4">
         <v>0.12</v>
       </c>
-      <c r="E2" s="3">
+      <c r="H3" s="3">
         <v>13600</v>
       </c>
-      <c r="F2" s="3">
-        <f>C2+D2*(B2-E2)</f>
-        <v>1388.68</v>
-      </c>
-      <c r="G2" s="1">
-        <f>F2/B2</f>
-        <v>0.10034540067923983</v>
-      </c>
-      <c r="H2" s="3">
-        <f>MIN(7500,F2)</f>
-        <v>1388.68</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.191</v>
-      </c>
-      <c r="L2" s="1">
-        <v>6.7000000000000004E-2</v>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>4153</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J7" si="1">I3/E3</f>
+        <v>0.11262372881355932</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K7" si="2">MIN(7500,I3)</f>
+        <v>4153</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P3" s="6">
+        <v>8640</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>9896</v>
+      </c>
+      <c r="R3" s="6">
+        <v>11605.807788</v>
+      </c>
+      <c r="S3" s="6">
+        <v>14350.869022999999</v>
+      </c>
+      <c r="T3" s="5">
+        <v>11.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
-        <v>36875</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1360</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="E3" s="3">
-        <v>13600</v>
-      </c>
-      <c r="F3" s="3">
-        <f>C3+D3*(B3-E3)</f>
-        <v>4153</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G7" si="0">F3/B3</f>
-        <v>0.11262372881355932</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H7" si="1">MIN(7500,F3)</f>
-        <v>4153</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.224</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.14000000000000001</v>
+      <c r="C4" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>61731</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5944</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="H4" s="3">
+        <v>51801</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>8128.6</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13167776319839303</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.186</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="P4" s="6">
+        <v>10107</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>10497</v>
+      </c>
+      <c r="R4" s="6">
+        <v>12433.704757</v>
+      </c>
+      <c r="S4" s="6">
+        <v>13821.181558</v>
+      </c>
+      <c r="T4" s="5">
+        <v>10.7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
-        <v>61731</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5944</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="E4" s="3">
-        <v>51801</v>
-      </c>
-      <c r="F4" s="3">
-        <f>C4+D4*(B4-E4)</f>
-        <v>8128.6</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="C5" s="3">
+        <v>75000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>86536</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12698</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="H5" s="3">
+        <v>82500</v>
+      </c>
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>0.13167776319839303</v>
-      </c>
-      <c r="H4" s="3">
+        <v>13666.64</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
+        <v>0.15793011001201812</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="J4" s="1">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.186</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.16700000000000001</v>
+      <c r="L5" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="P5" s="6">
+        <v>9833</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>9920</v>
+      </c>
+      <c r="R5" s="6">
+        <v>11632.925692000001</v>
+      </c>
+      <c r="S5" s="6">
+        <v>12954.195089999999</v>
+      </c>
+      <c r="T5" s="5">
+        <v>9.9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <v>86536</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>135597</v>
+      </c>
+      <c r="F6" s="3">
         <v>12698</v>
       </c>
-      <c r="D5" s="4">
+      <c r="G6" s="4">
         <v>0.24</v>
       </c>
-      <c r="E5" s="3">
+      <c r="H6" s="3">
         <v>82500</v>
       </c>
-      <c r="F5" s="3">
-        <f>C5+D5*(B5-E5)</f>
-        <v>13666.64</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>0.15793011001201812</v>
-      </c>
-      <c r="H5" s="3">
+        <v>25441.279999999999</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
+        <v>0.18762420997514692</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="J5" s="1">
-        <v>0.123</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.154</v>
+      <c r="L6" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="P6" s="6">
+        <v>9040</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>9349</v>
+      </c>
+      <c r="R6" s="6">
+        <v>10959.760188</v>
+      </c>
+      <c r="S6" s="6">
+        <v>12622.201553999999</v>
+      </c>
+      <c r="T6" s="5">
+        <v>8.9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>135597</v>
-      </c>
-      <c r="C6" s="3">
-        <v>12698</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="3">
-        <v>82500</v>
-      </c>
-      <c r="F6" s="3">
-        <f>C6+D6*(B6-E6)</f>
-        <v>25441.279999999999</v>
-      </c>
-      <c r="G6" s="1">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>444358</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44298</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="H7" s="3">
+        <v>200000</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>0.18762420997514692</v>
-      </c>
-      <c r="H6" s="3">
+        <v>129823.29999999999</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
+        <v>0.29215924997411996</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="J6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>444358</v>
-      </c>
-      <c r="C7" s="3">
-        <v>44298</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="E7" s="3">
-        <v>200000</v>
-      </c>
-      <c r="F7" s="3">
-        <f>C7+D7*(B7-E7)</f>
-        <v>129823.29999999999</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.29215924997411996</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="1"/>
-        <v>7500</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M7" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="K7" s="1">
+      <c r="N7" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L7" s="1">
+      <c r="O7" s="1">
         <v>0.13</v>
+      </c>
+      <c r="P7" s="6">
+        <v>8184</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>8097</v>
+      </c>
+      <c r="R7" s="6">
+        <v>10929.918250999999</v>
+      </c>
+      <c r="S7" s="6">
+        <v>11533.463019999999</v>
+      </c>
+      <c r="T7" s="5">
+        <v>8.9</v>
       </c>
     </row>
   </sheetData>

--- a/data/income_groups.xlsx
+++ b/data/income_groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steff\Documents\Studium - UW\PUBPOL 594 A - Economic Approaches To Environmental Management\Project\tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EB0320-0FEC-4AA8-9556-E1A91910CF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32464A8-65BC-4912-AB3C-E1680A215567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{DD775888-F91C-4112-8121-71A92DE74290}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DD775888-F91C-4112-8121-71A92DE74290}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70D2DBF-580B-46D9-BE63-61DC94AB5FBA}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,7 +618,7 @@
         <v>13600</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I7" si="0">F2+G2*(E2-H2)</f>
+        <f>F2+G2*(E2-H2)</f>
         <v>1388.68</v>
       </c>
       <c r="J2" s="1">
@@ -630,7 +630,7 @@
         <v>1388.68</v>
       </c>
       <c r="L2" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M2" s="1">
         <v>0.23300000000000001</v>
@@ -683,7 +683,7 @@
         <v>13600</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I2:I7" si="0">F3+G3*(E3-H3)</f>
         <v>4153</v>
       </c>
       <c r="J3" s="1">
@@ -695,7 +695,7 @@
         <v>4153</v>
       </c>
       <c r="L3" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M3" s="1">
         <v>0.224</v>
@@ -760,7 +760,7 @@
         <v>7500</v>
       </c>
       <c r="L4" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M4" s="1">
         <v>0.16500000000000001</v>
@@ -825,7 +825,7 @@
         <v>7500</v>
       </c>
       <c r="L5" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M5" s="1">
         <v>0.123</v>
@@ -890,7 +890,7 @@
         <v>7500</v>
       </c>
       <c r="L6" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M6" s="1">
         <v>0.2</v>
@@ -955,7 +955,7 @@
         <v>7500</v>
       </c>
       <c r="L7" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M7" s="1">
         <v>5.5E-2</v>

--- a/data/income_groups.xlsx
+++ b/data/income_groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steff\Documents\Studium - UW\PUBPOL 594 A - Economic Approaches To Environmental Management\Project\tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32464A8-65BC-4912-AB3C-E1680A215567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472896E6-E794-4B80-A39D-A0E909346685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DD775888-F91C-4112-8121-71A92DE74290}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>discount rate</t>
   </si>
@@ -96,15 +96,6 @@
   </si>
   <si>
     <t>average vehicle age [years]</t>
-  </si>
-  <si>
-    <t>average annual mileage per person (WA) [mi]</t>
-  </si>
-  <si>
-    <t>average annual mileage per person (U.S.) [mi]</t>
-  </si>
-  <si>
-    <t>average annual mileage per vehicle (WA) [mi]</t>
   </si>
   <si>
     <t>average annual mileage per vehicle (U.S.) [mi]</t>
@@ -511,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70D2DBF-580B-46D9-BE63-61DC94AB5FBA}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,10 +518,10 @@
     <col min="11" max="11" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.26953125" customWidth="1"/>
     <col min="13" max="15" width="13.08984375" customWidth="1"/>
-    <col min="16" max="19" width="14" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -580,24 +571,15 @@
         <v>20</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -642,22 +624,13 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="P2" s="6">
-        <v>5043</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>7490</v>
-      </c>
-      <c r="R2" s="6">
-        <v>12908.873572</v>
-      </c>
-      <c r="S2" s="6">
-        <v>13363.344440000001</v>
-      </c>
-      <c r="T2" s="5">
+        <v>13000</v>
+      </c>
+      <c r="Q2" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -683,7 +656,7 @@
         <v>13600</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I2:I7" si="0">F3+G3*(E3-H3)</f>
+        <f t="shared" ref="I3:I7" si="0">F3+G3*(E3-H3)</f>
         <v>4153</v>
       </c>
       <c r="J3" s="1">
@@ -707,22 +680,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="P3" s="6">
-        <v>8640</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>9896</v>
-      </c>
-      <c r="R3" s="6">
-        <v>11605.807788</v>
-      </c>
-      <c r="S3" s="6">
-        <v>14350.869022999999</v>
-      </c>
-      <c r="T3" s="5">
+        <v>13000</v>
+      </c>
+      <c r="Q3" s="5">
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -772,22 +736,13 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="P4" s="6">
-        <v>10107</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>10497</v>
-      </c>
-      <c r="R4" s="6">
-        <v>12433.704757</v>
-      </c>
-      <c r="S4" s="6">
-        <v>13821.181558</v>
-      </c>
-      <c r="T4" s="5">
+        <v>13000</v>
+      </c>
+      <c r="Q4" s="5">
         <v>10.7</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -837,22 +792,13 @@
         <v>0.154</v>
       </c>
       <c r="P5" s="6">
-        <v>9833</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>9920</v>
-      </c>
-      <c r="R5" s="6">
-        <v>11632.925692000001</v>
-      </c>
-      <c r="S5" s="6">
-        <v>12954.195089999999</v>
-      </c>
-      <c r="T5" s="5">
+        <v>13000</v>
+      </c>
+      <c r="Q5" s="5">
         <v>9.9</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -902,27 +848,18 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="P6" s="6">
-        <v>9040</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>9349</v>
-      </c>
-      <c r="R6" s="6">
-        <v>10959.760188</v>
-      </c>
-      <c r="S6" s="6">
-        <v>12622.201553999999</v>
-      </c>
-      <c r="T6" s="5">
+        <v>13000</v>
+      </c>
+      <c r="Q6" s="5">
         <v>8.9</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3">
         <v>200000</v>
@@ -967,18 +904,9 @@
         <v>0.13</v>
       </c>
       <c r="P7" s="6">
-        <v>8184</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>8097</v>
-      </c>
-      <c r="R7" s="6">
-        <v>10929.918250999999</v>
-      </c>
-      <c r="S7" s="6">
-        <v>11533.463019999999</v>
-      </c>
-      <c r="T7" s="5">
+        <v>13000</v>
+      </c>
+      <c r="Q7" s="5">
         <v>8.9</v>
       </c>
     </row>

--- a/data/income_groups.xlsx
+++ b/data/income_groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steff\Documents\Studium - UW\PUBPOL 594 A - Economic Approaches To Environmental Management\Project\tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472896E6-E794-4B80-A39D-A0E909346685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EA690C-32D6-4CC1-A2E6-2B3843168C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DD775888-F91C-4112-8121-71A92DE74290}"/>
   </bookViews>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70D2DBF-580B-46D9-BE63-61DC94AB5FBA}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,7 +624,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="P2" s="6">
-        <v>13000</v>
+        <v>13250</v>
       </c>
       <c r="Q2" s="5">
         <v>13</v>
@@ -680,7 +680,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="P3" s="6">
-        <v>13000</v>
+        <v>14250</v>
       </c>
       <c r="Q3" s="5">
         <v>11.5</v>
@@ -736,7 +736,7 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="P4" s="6">
-        <v>13000</v>
+        <v>13750</v>
       </c>
       <c r="Q4" s="5">
         <v>10.7</v>
@@ -848,7 +848,7 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="P6" s="6">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="Q6" s="5">
         <v>8.9</v>
@@ -904,7 +904,7 @@
         <v>0.13</v>
       </c>
       <c r="P7" s="6">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="Q7" s="5">
         <v>8.9</v>

--- a/data/income_groups.xlsx
+++ b/data/income_groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steff\Documents\Studium - UW\PUBPOL 594 A - Economic Approaches To Environmental Management\Project\tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EA690C-32D6-4CC1-A2E6-2B3843168C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF5FEB6-F6E8-48CB-A670-E75BA913ADC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{DD775888-F91C-4112-8121-71A92DE74290}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{DD775888-F91C-4112-8121-71A92DE74290}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
